--- a/data-raw/journal.pone.0164255.s004.XLSX
+++ b/data-raw/journal.pone.0164255.s004.XLSX
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DB930B-6CBE-416C-B55C-80F7D172AACF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="690"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="30" r:id="rId1"/>
@@ -12,7 +13,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AP$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -280,37 +289,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="164" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -404,52 +413,52 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -457,12 +466,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -504,7 +516,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -537,9 +549,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -572,6 +601,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,14 +793,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.53125" style="8" customWidth="1"/>
     <col min="2" max="4" width="9" style="8"/>
@@ -788,7 +834,7 @@
     <col min="43" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="4" customFormat="1" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="4" customFormat="1" ht="81" customHeight="1" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -916,7 +962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:42" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:42" ht="13.9" thickTop="1">
       <c r="A2" s="5">
         <v>0</v>
       </c>
@@ -1044,7 +1090,7 @@
         <v>2146.9</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:42">
       <c r="A3" s="5">
         <v>0</v>
       </c>
@@ -1172,7 +1218,7 @@
         <v>2943.7</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:42">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -1300,7 +1346,7 @@
         <v>3277.2</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42">
       <c r="A5" s="5">
         <v>0</v>
       </c>
@@ -1428,7 +1474,7 @@
         <v>1939.8</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:42">
       <c r="A6" s="6">
         <v>0</v>
       </c>
@@ -1556,7 +1602,7 @@
         <v>2014.1</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:42">
       <c r="A7" s="6">
         <v>0</v>
       </c>
@@ -1684,7 +1730,7 @@
         <v>2199.1</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:42">
       <c r="A8" s="5">
         <v>0</v>
       </c>
@@ -1812,7 +1858,7 @@
         <v>1865.3</v>
       </c>
     </row>
-    <row r="9" spans="1:42" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:42" s="12" customFormat="1">
       <c r="A9" s="10">
         <v>0</v>
       </c>
@@ -1940,7 +1986,7 @@
         <v>2127.6999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:42">
       <c r="A10" s="5">
         <v>0</v>
       </c>
@@ -2068,7 +2114,7 @@
         <v>2621.6</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:42">
       <c r="A11" s="5">
         <v>0</v>
       </c>
@@ -2196,7 +2242,7 @@
         <v>3581.7</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:42">
       <c r="A12" s="5">
         <v>0</v>
       </c>
@@ -2324,7 +2370,7 @@
         <v>2549.1999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:42">
       <c r="A13" s="5">
         <v>0</v>
       </c>
@@ -2452,7 +2498,7 @@
         <v>2809.4</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:42">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -2580,7 +2626,7 @@
         <v>2334.8000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:42">
       <c r="A15" s="5">
         <v>0</v>
       </c>
@@ -2708,7 +2754,7 @@
         <v>2235.6</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:42">
       <c r="A16" s="5">
         <v>0</v>
       </c>
@@ -2836,7 +2882,7 @@
         <v>2634.9</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:42">
       <c r="A17" s="5">
         <v>0</v>
       </c>
@@ -2964,7 +3010,7 @@
         <v>3610.6</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:42">
       <c r="A18" s="5">
         <v>0</v>
       </c>
@@ -3092,7 +3138,7 @@
         <v>2708.4</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:42">
       <c r="A19" s="5">
         <v>0</v>
       </c>
@@ -3220,7 +3266,7 @@
         <v>7128.6</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:42">
       <c r="A20" s="5">
         <v>0</v>
       </c>
@@ -3348,7 +3394,7 @@
         <v>2725.1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:42">
       <c r="A21" s="5">
         <v>0</v>
       </c>
@@ -3476,7 +3522,7 @@
         <v>3184.9</v>
       </c>
     </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:42">
       <c r="A22" s="5">
         <v>0</v>
       </c>
@@ -3604,7 +3650,7 @@
         <v>4771.1000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:42">
       <c r="A23" s="5">
         <v>0</v>
       </c>
@@ -3732,7 +3778,7 @@
         <v>3217.2</v>
       </c>
     </row>
-    <row r="24" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:42">
       <c r="A24" s="5">
         <v>0</v>
       </c>
@@ -3860,7 +3906,7 @@
         <v>7500.3</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:42">
       <c r="A25" s="6">
         <v>0</v>
       </c>
@@ -3988,7 +4034,7 @@
         <v>2787.6</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:42">
       <c r="A26" s="6">
         <v>0</v>
       </c>
@@ -4116,7 +4162,7 @@
         <v>2439.1</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:42">
       <c r="A27" s="5">
         <v>0</v>
       </c>
@@ -4244,7 +4290,7 @@
         <v>1958.7</v>
       </c>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:42">
       <c r="A28" s="5">
         <v>0</v>
       </c>
@@ -4372,7 +4418,7 @@
         <v>2292.9</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:42">
       <c r="A29" s="5">
         <v>0</v>
       </c>
@@ -4500,7 +4546,7 @@
         <v>2693.4</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:42">
       <c r="A30" s="5">
         <v>0</v>
       </c>
@@ -4628,7 +4674,7 @@
         <v>3076.7</v>
       </c>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:42">
       <c r="A31" s="5">
         <v>0</v>
       </c>
@@ -4756,7 +4802,7 @@
         <v>2905.5</v>
       </c>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:42">
       <c r="A32" s="5">
         <v>0</v>
       </c>
@@ -4884,7 +4930,7 @@
         <v>2824.6</v>
       </c>
     </row>
-    <row r="33" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:42">
       <c r="A33" s="5">
         <v>0</v>
       </c>
@@ -5013,7 +5059,7 @@
         <v>2851.1</v>
       </c>
     </row>
-    <row r="34" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:42">
       <c r="A34" s="6">
         <v>0</v>
       </c>
@@ -5141,7 +5187,7 @@
         <v>3102.1</v>
       </c>
     </row>
-    <row r="35" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:42">
       <c r="A35" s="6">
         <v>0</v>
       </c>
@@ -5269,7 +5315,7 @@
         <v>2934.2</v>
       </c>
     </row>
-    <row r="36" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:42">
       <c r="A36" s="5">
         <v>0</v>
       </c>
@@ -5397,7 +5443,7 @@
         <v>2895.9</v>
       </c>
     </row>
-    <row r="37" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:42">
       <c r="A37" s="5">
         <v>0</v>
       </c>
@@ -5525,7 +5571,7 @@
         <v>3162.5</v>
       </c>
     </row>
-    <row r="38" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:42">
       <c r="A38" s="5">
         <v>0</v>
       </c>
@@ -5653,7 +5699,7 @@
         <v>2261.6</v>
       </c>
     </row>
-    <row r="39" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:42">
       <c r="A39" s="5">
         <v>0</v>
       </c>
@@ -5781,7 +5827,7 @@
         <v>2932.4</v>
       </c>
     </row>
-    <row r="40" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:42">
       <c r="A40" s="5">
         <v>0</v>
       </c>
@@ -5909,7 +5955,7 @@
         <v>1878.6</v>
       </c>
     </row>
-    <row r="41" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:42">
       <c r="A41" s="5">
         <v>0</v>
       </c>
@@ -6037,7 +6083,7 @@
         <v>2965.4</v>
       </c>
     </row>
-    <row r="42" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:42">
       <c r="A42" s="5">
         <v>0</v>
       </c>
@@ -6165,7 +6211,7 @@
         <v>3826.4</v>
       </c>
     </row>
-    <row r="43" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:42">
       <c r="A43" s="5">
         <v>0</v>
       </c>
@@ -6293,7 +6339,7 @@
         <v>3465.9</v>
       </c>
     </row>
-    <row r="44" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:42">
       <c r="A44" s="5">
         <v>0</v>
       </c>
@@ -6421,7 +6467,7 @@
         <v>2419.4</v>
       </c>
     </row>
-    <row r="45" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:42">
       <c r="A45" s="5">
         <v>0</v>
       </c>
@@ -6549,7 +6595,7 @@
         <v>2199.6</v>
       </c>
     </row>
-    <row r="46" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:42">
       <c r="A46" s="6">
         <v>0</v>
       </c>
@@ -6677,7 +6723,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="47" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:42">
       <c r="A47" s="6">
         <v>0</v>
       </c>
@@ -6805,7 +6851,7 @@
         <v>2314.9</v>
       </c>
     </row>
-    <row r="48" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:42">
       <c r="A48" s="5">
         <v>0</v>
       </c>
@@ -6933,7 +6979,7 @@
         <v>1977.8</v>
       </c>
     </row>
-    <row r="49" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:42">
       <c r="A49" s="5">
         <v>0</v>
       </c>
@@ -7061,7 +7107,7 @@
         <v>3490.4</v>
       </c>
     </row>
-    <row r="50" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:42">
       <c r="A50" s="5">
         <v>0</v>
       </c>
@@ -7189,7 +7235,7 @@
         <v>3102.8</v>
       </c>
     </row>
-    <row r="51" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:42">
       <c r="A51" s="5">
         <v>0</v>
       </c>
@@ -7317,7 +7363,7 @@
         <v>3194.7</v>
       </c>
     </row>
-    <row r="52" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:42">
       <c r="A52" s="5">
         <v>0</v>
       </c>
@@ -7445,7 +7491,7 @@
         <v>2130.1</v>
       </c>
     </row>
-    <row r="53" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:42">
       <c r="A53" s="5">
         <v>0</v>
       </c>
@@ -7573,7 +7619,7 @@
         <v>2720.6</v>
       </c>
     </row>
-    <row r="54" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:42">
       <c r="A54" s="5">
         <v>0</v>
       </c>
@@ -7701,7 +7747,7 @@
         <v>4482.3999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:42">
       <c r="A55" s="5">
         <v>0</v>
       </c>
@@ -7829,7 +7875,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:42" ht="13.9" thickBot="1">
       <c r="A56" s="13">
         <v>0</v>
       </c>
@@ -7957,7 +8003,7 @@
         <v>2772.7</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="13.9" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:42" ht="13.9" thickTop="1">
       <c r="A57" s="6">
         <v>1</v>
       </c>
@@ -8085,7 +8131,7 @@
         <v>3039.8</v>
       </c>
     </row>
-    <row r="58" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:42">
       <c r="A58" s="5">
         <v>1</v>
       </c>
@@ -8213,7 +8259,7 @@
         <v>2424.3000000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:42">
       <c r="A59" s="5">
         <v>1</v>
       </c>
@@ -8341,7 +8387,7 @@
         <v>7354.5</v>
       </c>
     </row>
-    <row r="60" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:42">
       <c r="A60" s="5">
         <v>1</v>
       </c>
@@ -8469,7 +8515,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="61" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:42">
       <c r="A61" s="5">
         <v>1</v>
       </c>
@@ -8597,7 +8643,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="62" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:42">
       <c r="A62" s="5">
         <v>1</v>
       </c>
@@ -8725,7 +8771,7 @@
         <v>1916.8</v>
       </c>
     </row>
-    <row r="63" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:42">
       <c r="A63" s="5">
         <v>1</v>
       </c>
@@ -8853,7 +8899,7 @@
         <v>2097.4</v>
       </c>
     </row>
-    <row r="64" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:42">
       <c r="A64" s="5">
         <v>1</v>
       </c>
@@ -8981,7 +9027,7 @@
         <v>2217.9</v>
       </c>
     </row>
-    <row r="65" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:42">
       <c r="A65" s="5">
         <v>1</v>
       </c>
@@ -9109,7 +9155,7 @@
         <v>2611.6999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:42">
       <c r="A66" s="5">
         <v>1</v>
       </c>
@@ -9237,7 +9283,7 @@
         <v>2461.9</v>
       </c>
     </row>
-    <row r="67" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:42">
       <c r="A67" s="5">
         <v>1</v>
       </c>
@@ -9365,7 +9411,7 @@
         <v>2459.6</v>
       </c>
     </row>
-    <row r="68" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:42">
       <c r="A68" s="5">
         <v>1</v>
       </c>
@@ -9493,7 +9539,7 @@
         <v>2810.2</v>
       </c>
     </row>
-    <row r="69" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:42">
       <c r="A69" s="5">
         <v>1</v>
       </c>
@@ -9621,7 +9667,7 @@
         <v>2173.5</v>
       </c>
     </row>
-    <row r="70" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:42">
       <c r="A70" s="5">
         <v>1</v>
       </c>
@@ -9749,7 +9795,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="71" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:42">
       <c r="A71" s="5">
         <v>1</v>
       </c>
@@ -9877,7 +9923,7 @@
         <v>2553</v>
       </c>
     </row>
-    <row r="72" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:42">
       <c r="A72" s="5">
         <v>1</v>
       </c>
@@ -10005,7 +10051,7 @@
         <v>2149.1999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:42">
       <c r="A73" s="5">
         <v>1</v>
       </c>
@@ -10133,7 +10179,7 @@
         <v>2771.5</v>
       </c>
     </row>
-    <row r="74" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:42">
       <c r="A74" s="5">
         <v>1</v>
       </c>
@@ -10261,7 +10307,7 @@
         <v>2047.3</v>
       </c>
     </row>
-    <row r="75" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:42">
       <c r="A75" s="5">
         <v>1</v>
       </c>
@@ -10389,7 +10435,7 @@
         <v>7285</v>
       </c>
     </row>
-    <row r="76" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:42">
       <c r="A76" s="5">
         <v>1</v>
       </c>
@@ -10517,7 +10563,7 @@
         <v>1988.6</v>
       </c>
     </row>
-    <row r="77" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:42">
       <c r="A77" s="5">
         <v>1</v>
       </c>
@@ -10645,7 +10691,7 @@
         <v>2703</v>
       </c>
     </row>
-    <row r="78" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:42">
       <c r="A78" s="5">
         <v>1</v>
       </c>
@@ -10773,7 +10819,7 @@
         <v>2276.8000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:42">
       <c r="A79" s="6">
         <v>1</v>
       </c>
@@ -10901,7 +10947,7 @@
         <v>2963.3</v>
       </c>
     </row>
-    <row r="80" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:42">
       <c r="A80" s="5">
         <v>1</v>
       </c>
@@ -11029,7 +11075,7 @@
         <v>2850.1</v>
       </c>
     </row>
-    <row r="81" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:42">
       <c r="A81" s="5">
         <v>1</v>
       </c>
@@ -11157,7 +11203,7 @@
         <v>2942.5</v>
       </c>
     </row>
-    <row r="82" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:42">
       <c r="A82" s="5">
         <v>1</v>
       </c>
@@ -11285,7 +11331,7 @@
         <v>2829.8</v>
       </c>
     </row>
-    <row r="83" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:42">
       <c r="A83" s="5">
         <v>1</v>
       </c>
@@ -11413,7 +11459,7 @@
         <v>2842.9</v>
       </c>
     </row>
-    <row r="84" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:42">
       <c r="A84" s="5">
         <v>1</v>
       </c>
@@ -11541,7 +11587,7 @@
         <v>1054.7</v>
       </c>
     </row>
-    <row r="85" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:42">
       <c r="A85" s="5">
         <v>1</v>
       </c>
@@ -11669,7 +11715,7 @@
         <v>2391.8000000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:42">
       <c r="A86" s="5">
         <v>1</v>
       </c>
@@ -11797,7 +11843,7 @@
         <v>2473.8000000000002</v>
       </c>
     </row>
-    <row r="87" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:42">
       <c r="A87" s="5">
         <v>1</v>
       </c>
@@ -11925,7 +11971,7 @@
         <v>531.9</v>
       </c>
     </row>
-    <row r="88" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:42">
       <c r="A88" s="5">
         <v>1</v>
       </c>
@@ -12053,7 +12099,7 @@
         <v>2393.6999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:42">
       <c r="A89" s="5">
         <v>1</v>
       </c>
@@ -12181,7 +12227,7 @@
         <v>2676.8</v>
       </c>
     </row>
-    <row r="90" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:42">
       <c r="A90" s="5">
         <v>1</v>
       </c>
@@ -12309,7 +12355,7 @@
         <v>2559.4</v>
       </c>
     </row>
-    <row r="91" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:42">
       <c r="A91" s="5">
         <v>1</v>
       </c>
@@ -12437,7 +12483,7 @@
         <v>3730.3</v>
       </c>
     </row>
-    <row r="92" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:42">
       <c r="A92" s="5">
         <v>1</v>
       </c>
@@ -12565,7 +12611,7 @@
         <v>3070.2</v>
       </c>
     </row>
-    <row r="93" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:42">
       <c r="A93" s="6">
         <v>1</v>
       </c>
@@ -12693,7 +12739,7 @@
         <v>3023.5</v>
       </c>
     </row>
-    <row r="94" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:42">
       <c r="A94" s="5">
         <v>1</v>
       </c>
@@ -12821,7 +12867,7 @@
         <v>2645.4</v>
       </c>
     </row>
-    <row r="95" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:42">
       <c r="A95" s="5">
         <v>1</v>
       </c>
@@ -12949,7 +12995,7 @@
         <v>2801.8</v>
       </c>
     </row>
-    <row r="96" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:42">
       <c r="A96" s="5">
         <v>1</v>
       </c>
@@ -13077,7 +13123,7 @@
         <v>3099.3</v>
       </c>
     </row>
-    <row r="97" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:42">
       <c r="A97" s="6">
         <v>1</v>
       </c>
@@ -13205,7 +13251,7 @@
         <v>2679.5</v>
       </c>
     </row>
-    <row r="98" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:42">
       <c r="A98" s="5">
         <v>1</v>
       </c>
@@ -13333,7 +13379,7 @@
         <v>2670.5</v>
       </c>
     </row>
-    <row r="99" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:42">
       <c r="A99" s="5">
         <v>1</v>
       </c>
@@ -13461,7 +13507,7 @@
         <v>2135.8000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:42">
       <c r="A100" s="5">
         <v>1</v>
       </c>
@@ -13589,7 +13635,7 @@
         <v>3163.6</v>
       </c>
     </row>
-    <row r="101" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:42">
       <c r="A101" s="5">
         <v>1</v>
       </c>
@@ -13717,7 +13763,7 @@
         <v>1511.9</v>
       </c>
     </row>
-    <row r="102" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:42">
       <c r="A102" s="5">
         <v>1</v>
       </c>
@@ -13845,7 +13891,7 @@
         <v>2043.4</v>
       </c>
     </row>
-    <row r="103" spans="1:42" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:42">
       <c r="A103" s="5">
         <v>1</v>
       </c>
@@ -13973,7 +14019,7 @@
         <v>2794.6</v>
       </c>
     </row>
-    <row r="104" spans="1:42" ht="13.9" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:42" ht="13.9" thickBot="1">
       <c r="A104" s="17">
         <v>1</v>
       </c>
@@ -14101,10 +14147,10 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="105" spans="1:42" ht="13.9" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:42" ht="13.9" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>